--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Gibson.Fall.121719-2.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Gibson.Fall.121719-2.xlsx_with_dialog_acts.xlsx
@@ -555,12 +555,12 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1483,12 +1483,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1525,12 +1525,12 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1735,12 +1735,12 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1777,12 +1777,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2239,12 +2239,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2659,12 +2659,12 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3037,12 +3037,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3083,12 +3083,12 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3167,12 +3167,12 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3293,12 +3293,12 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3335,12 +3335,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3419,12 +3419,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3545,12 +3545,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3927,12 +3927,12 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4389,12 +4389,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4683,12 +4683,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4935,12 +4935,12 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5103,12 +5103,12 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5355,12 +5355,12 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5989,12 +5989,12 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6161,12 +6161,12 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
